--- a/P2/report/data.xlsx
+++ b/P2/report/data.xlsx
@@ -82,9 +82,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1286,10 +1287,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A8:K33"/>
+  <dimension ref="A8:L86"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="A34" sqref="A34"/>
+    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="N34" sqref="N34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2081,7 +2082,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>3</v>
       </c>
@@ -2124,6 +2125,360 @@
       <c r="K33" s="1">
         <f t="shared" si="11"/>
         <v>6.0492819680086539E-2</v>
+      </c>
+      <c r="L33" s="2">
+        <f>AVERAGE(B33:K33)</f>
+        <v>6.4266958292806459E-2</v>
+      </c>
+    </row>
+    <row r="63" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C63">
+        <v>114</v>
+      </c>
+      <c r="D63">
+        <v>299</v>
+      </c>
+      <c r="G63">
+        <v>76</v>
+      </c>
+      <c r="H63">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="64" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C64">
+        <v>18</v>
+      </c>
+      <c r="D64">
+        <v>15</v>
+      </c>
+      <c r="G64">
+        <v>28</v>
+      </c>
+      <c r="H64">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="65" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C65">
+        <v>42</v>
+      </c>
+      <c r="D65">
+        <v>41</v>
+      </c>
+      <c r="G65">
+        <v>112</v>
+      </c>
+      <c r="H65">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="66" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C66">
+        <v>46</v>
+      </c>
+      <c r="D66">
+        <v>8</v>
+      </c>
+      <c r="G66">
+        <v>21</v>
+      </c>
+      <c r="H66">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="67" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C67">
+        <v>14</v>
+      </c>
+      <c r="D67">
+        <v>30</v>
+      </c>
+      <c r="G67">
+        <v>18</v>
+      </c>
+      <c r="H67">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="68" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C68">
+        <v>10</v>
+      </c>
+      <c r="D68">
+        <v>23</v>
+      </c>
+      <c r="G68">
+        <v>10</v>
+      </c>
+      <c r="H68">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="69" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C69">
+        <v>46</v>
+      </c>
+      <c r="D69">
+        <v>14</v>
+      </c>
+      <c r="G69">
+        <v>27</v>
+      </c>
+      <c r="H69">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="70" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C70">
+        <v>25</v>
+      </c>
+      <c r="D70">
+        <v>28</v>
+      </c>
+      <c r="G70">
+        <v>85</v>
+      </c>
+      <c r="H70">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="71" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C71">
+        <v>188</v>
+      </c>
+      <c r="D71">
+        <v>19</v>
+      </c>
+      <c r="G71">
+        <v>89</v>
+      </c>
+      <c r="H71">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="72" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C72">
+        <v>3</v>
+      </c>
+      <c r="D72">
+        <v>29</v>
+      </c>
+      <c r="G72">
+        <v>40</v>
+      </c>
+      <c r="H72">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="73" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="H73">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="75" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C75" s="1">
+        <f>C63/$A$10</f>
+        <v>0.22529644268774704</v>
+      </c>
+      <c r="D75" s="1">
+        <f>D63/$A$10</f>
+        <v>0.59090909090909094</v>
+      </c>
+      <c r="G75" s="1">
+        <f>G63/506</f>
+        <v>0.15019762845849802</v>
+      </c>
+      <c r="H75" s="1">
+        <f>H63/506</f>
+        <v>0.15019762845849802</v>
+      </c>
+    </row>
+    <row r="76" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C76" s="1">
+        <f t="shared" ref="C76:D84" si="12">C64/$A$10</f>
+        <v>3.5573122529644272E-2</v>
+      </c>
+      <c r="D76" s="1">
+        <f t="shared" si="12"/>
+        <v>2.9644268774703556E-2</v>
+      </c>
+      <c r="G76" s="1">
+        <f t="shared" ref="G76:H85" si="13">G64/506</f>
+        <v>5.533596837944664E-2</v>
+      </c>
+      <c r="H76" s="1">
+        <f t="shared" si="13"/>
+        <v>3.1620553359683792E-2</v>
+      </c>
+    </row>
+    <row r="77" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C77" s="1">
+        <f t="shared" si="12"/>
+        <v>8.3003952569169967E-2</v>
+      </c>
+      <c r="D77" s="1">
+        <f t="shared" si="12"/>
+        <v>8.1027667984189727E-2</v>
+      </c>
+      <c r="G77" s="1">
+        <f t="shared" si="13"/>
+        <v>0.22134387351778656</v>
+      </c>
+      <c r="H77" s="1">
+        <f t="shared" si="13"/>
+        <v>0.16403162055335968</v>
+      </c>
+    </row>
+    <row r="78" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C78" s="1">
+        <f t="shared" si="12"/>
+        <v>9.0909090909090912E-2</v>
+      </c>
+      <c r="D78" s="1">
+        <f t="shared" si="12"/>
+        <v>1.5810276679841896E-2</v>
+      </c>
+      <c r="G78" s="1">
+        <f t="shared" si="13"/>
+        <v>4.1501976284584984E-2</v>
+      </c>
+      <c r="H78" s="1">
+        <f t="shared" si="13"/>
+        <v>4.1501976284584984E-2</v>
+      </c>
+    </row>
+    <row r="79" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C79" s="1">
+        <f t="shared" si="12"/>
+        <v>2.766798418972332E-2</v>
+      </c>
+      <c r="D79" s="1">
+        <f t="shared" si="12"/>
+        <v>5.9288537549407112E-2</v>
+      </c>
+      <c r="G79" s="1">
+        <f t="shared" si="13"/>
+        <v>3.5573122529644272E-2</v>
+      </c>
+      <c r="H79" s="1">
+        <f t="shared" si="13"/>
+        <v>3.5573122529644272E-2</v>
+      </c>
+    </row>
+    <row r="80" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C80" s="1">
+        <f t="shared" si="12"/>
+        <v>1.9762845849802372E-2</v>
+      </c>
+      <c r="D80" s="1">
+        <f t="shared" si="12"/>
+        <v>4.5454545454545456E-2</v>
+      </c>
+      <c r="G80" s="1">
+        <f t="shared" si="13"/>
+        <v>1.9762845849802372E-2</v>
+      </c>
+      <c r="H80" s="1">
+        <f t="shared" si="13"/>
+        <v>4.5454545454545456E-2</v>
+      </c>
+    </row>
+    <row r="81" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C81" s="1">
+        <f t="shared" si="12"/>
+        <v>9.0909090909090912E-2</v>
+      </c>
+      <c r="D81" s="1">
+        <f t="shared" si="12"/>
+        <v>2.766798418972332E-2</v>
+      </c>
+      <c r="G81" s="1">
+        <f t="shared" si="13"/>
+        <v>5.33596837944664E-2</v>
+      </c>
+      <c r="H81" s="1">
+        <f t="shared" si="13"/>
+        <v>5.33596837944664E-2</v>
+      </c>
+    </row>
+    <row r="82" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C82" s="1">
+        <f t="shared" si="12"/>
+        <v>4.9407114624505928E-2</v>
+      </c>
+      <c r="D82" s="1">
+        <f t="shared" si="12"/>
+        <v>5.533596837944664E-2</v>
+      </c>
+      <c r="G82" s="1">
+        <f t="shared" si="13"/>
+        <v>0.16798418972332016</v>
+      </c>
+      <c r="H82" s="1">
+        <f t="shared" si="13"/>
+        <v>0.22134387351778656</v>
+      </c>
+    </row>
+    <row r="83" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C83" s="1">
+        <f t="shared" si="12"/>
+        <v>0.3715415019762846</v>
+      </c>
+      <c r="D83" s="1">
+        <f t="shared" si="12"/>
+        <v>3.7549407114624504E-2</v>
+      </c>
+      <c r="G83" s="1">
+        <f t="shared" si="13"/>
+        <v>0.17588932806324112</v>
+      </c>
+      <c r="H83" s="1">
+        <f t="shared" si="13"/>
+        <v>0.1600790513833992</v>
+      </c>
+    </row>
+    <row r="84" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C84" s="1">
+        <f t="shared" si="12"/>
+        <v>5.9288537549407111E-3</v>
+      </c>
+      <c r="D84" s="1">
+        <f t="shared" si="12"/>
+        <v>5.731225296442688E-2</v>
+      </c>
+      <c r="G84" s="1">
+        <f t="shared" si="13"/>
+        <v>7.9051383399209488E-2</v>
+      </c>
+      <c r="H84" s="1">
+        <f t="shared" si="13"/>
+        <v>7.7075098814229248E-2</v>
+      </c>
+    </row>
+    <row r="85" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C85" s="1">
+        <f>STDEV(C75:C84)</f>
+        <v>0.11407497792366794</v>
+      </c>
+      <c r="D85" s="1">
+        <f>STDEV(D75:D84)</f>
+        <v>0.17351633597932289</v>
+      </c>
+      <c r="G85" s="1"/>
+      <c r="H85" s="1">
+        <f t="shared" si="13"/>
+        <v>1.9762845849802372E-2</v>
+      </c>
+    </row>
+    <row r="86" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="G86" s="1">
+        <f>STDEV(G75:G84)</f>
+        <v>7.16822148161496E-2</v>
+      </c>
+      <c r="H86" s="1">
+        <f>STDEV(H75:H85)</f>
+        <v>6.9575322658061281E-2</v>
       </c>
     </row>
   </sheetData>

--- a/P2/report/data.xlsx
+++ b/P2/report/data.xlsx
@@ -268,11 +268,11 @@
         </c:dLbls>
         <c:gapWidth val="269"/>
         <c:overlap val="-20"/>
-        <c:axId val="2139035216"/>
-        <c:axId val="2131469584"/>
+        <c:axId val="2133375344"/>
+        <c:axId val="2133368208"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2139035216"/>
+        <c:axId val="2133375344"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -325,7 +325,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2131469584"/>
+        <c:crossAx val="2133368208"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -333,7 +333,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2131469584"/>
+        <c:axId val="2133368208"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -367,7 +367,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2139035216"/>
+        <c:crossAx val="2133375344"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1289,8 +1289,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A8:L86"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="N34" sqref="N34"/>
+    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
+      <selection activeCell="H62" sqref="H62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2131,7 +2131,7 @@
         <v>6.4266958292806459E-2</v>
       </c>
     </row>
-    <row r="63" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:10" x14ac:dyDescent="0.2">
       <c r="C63">
         <v>114</v>
       </c>
@@ -2144,8 +2144,11 @@
       <c r="H63">
         <v>76</v>
       </c>
-    </row>
-    <row r="64" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="J63">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="64" spans="3:10" x14ac:dyDescent="0.2">
       <c r="C64">
         <v>18</v>
       </c>
@@ -2158,8 +2161,11 @@
       <c r="H64">
         <v>16</v>
       </c>
-    </row>
-    <row r="65" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="J64">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="65" spans="3:10" x14ac:dyDescent="0.2">
       <c r="C65">
         <v>42</v>
       </c>
@@ -2172,8 +2178,11 @@
       <c r="H65">
         <v>83</v>
       </c>
-    </row>
-    <row r="66" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="J65">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="3:10" x14ac:dyDescent="0.2">
       <c r="C66">
         <v>46</v>
       </c>
@@ -2186,8 +2195,11 @@
       <c r="H66">
         <v>21</v>
       </c>
-    </row>
-    <row r="67" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="J66">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="3:10" x14ac:dyDescent="0.2">
       <c r="C67">
         <v>14</v>
       </c>
@@ -2200,8 +2212,11 @@
       <c r="H67">
         <v>18</v>
       </c>
-    </row>
-    <row r="68" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="J67">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="68" spans="3:10" x14ac:dyDescent="0.2">
       <c r="C68">
         <v>10</v>
       </c>
@@ -2214,8 +2229,11 @@
       <c r="H68">
         <v>23</v>
       </c>
-    </row>
-    <row r="69" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="J68">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="69" spans="3:10" x14ac:dyDescent="0.2">
       <c r="C69">
         <v>46</v>
       </c>
@@ -2228,8 +2246,11 @@
       <c r="H69">
         <v>27</v>
       </c>
-    </row>
-    <row r="70" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="J69">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="70" spans="3:10" x14ac:dyDescent="0.2">
       <c r="C70">
         <v>25</v>
       </c>
@@ -2242,8 +2263,11 @@
       <c r="H70">
         <v>112</v>
       </c>
-    </row>
-    <row r="71" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="J70">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="71" spans="3:10" x14ac:dyDescent="0.2">
       <c r="C71">
         <v>188</v>
       </c>
@@ -2256,8 +2280,11 @@
       <c r="H71">
         <v>81</v>
       </c>
-    </row>
-    <row r="72" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="J71">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="72" spans="3:10" x14ac:dyDescent="0.2">
       <c r="C72">
         <v>3</v>
       </c>
@@ -2270,13 +2297,19 @@
       <c r="H72">
         <v>39</v>
       </c>
-    </row>
-    <row r="73" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="J72">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="73" spans="3:10" x14ac:dyDescent="0.2">
       <c r="H73">
         <v>10</v>
       </c>
-    </row>
-    <row r="75" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="J73">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="75" spans="3:10" x14ac:dyDescent="0.2">
       <c r="C75" s="1">
         <f>C63/$A$10</f>
         <v>0.22529644268774704</v>
@@ -2293,170 +2326,220 @@
         <f>H63/506</f>
         <v>0.15019762845849802</v>
       </c>
-    </row>
-    <row r="76" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="I75" s="1"/>
+      <c r="J75" s="1">
+        <f t="shared" ref="I75:J75" si="12">J63/506</f>
+        <v>2.766798418972332E-2</v>
+      </c>
+    </row>
+    <row r="76" spans="3:10" x14ac:dyDescent="0.2">
       <c r="C76" s="1">
-        <f t="shared" ref="C76:D84" si="12">C64/$A$10</f>
+        <f t="shared" ref="C76:D84" si="13">C64/$A$10</f>
         <v>3.5573122529644272E-2</v>
       </c>
       <c r="D76" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>2.9644268774703556E-2</v>
       </c>
       <c r="G76" s="1">
-        <f t="shared" ref="G76:H85" si="13">G64/506</f>
+        <f t="shared" ref="G76:H85" si="14">G64/506</f>
         <v>5.533596837944664E-2</v>
       </c>
       <c r="H76" s="1">
+        <f t="shared" si="14"/>
+        <v>3.1620553359683792E-2</v>
+      </c>
+      <c r="I76" s="1"/>
+      <c r="J76" s="1">
+        <f t="shared" ref="I76:J76" si="15">J64/506</f>
+        <v>5.9288537549407111E-3</v>
+      </c>
+    </row>
+    <row r="77" spans="3:10" x14ac:dyDescent="0.2">
+      <c r="C77" s="1">
         <f t="shared" si="13"/>
-        <v>3.1620553359683792E-2</v>
-      </c>
-    </row>
-    <row r="77" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="C77" s="1">
-        <f t="shared" si="12"/>
         <v>8.3003952569169967E-2</v>
       </c>
       <c r="D77" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>8.1027667984189727E-2</v>
       </c>
       <c r="G77" s="1">
+        <f t="shared" si="14"/>
+        <v>0.22134387351778656</v>
+      </c>
+      <c r="H77" s="1">
+        <f t="shared" si="14"/>
+        <v>0.16403162055335968</v>
+      </c>
+      <c r="I77" s="1"/>
+      <c r="J77" s="1">
+        <f t="shared" ref="I77:J77" si="16">J65/506</f>
+        <v>1.976284584980237E-3</v>
+      </c>
+    </row>
+    <row r="78" spans="3:10" x14ac:dyDescent="0.2">
+      <c r="C78" s="1">
         <f t="shared" si="13"/>
-        <v>0.22134387351778656</v>
-      </c>
-      <c r="H77" s="1">
+        <v>9.0909090909090912E-2</v>
+      </c>
+      <c r="D78" s="1">
         <f t="shared" si="13"/>
-        <v>0.16403162055335968</v>
-      </c>
-    </row>
-    <row r="78" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="C78" s="1">
-        <f t="shared" si="12"/>
-        <v>9.0909090909090912E-2</v>
-      </c>
-      <c r="D78" s="1">
-        <f t="shared" si="12"/>
         <v>1.5810276679841896E-2</v>
       </c>
       <c r="G78" s="1">
+        <f t="shared" si="14"/>
+        <v>4.1501976284584984E-2</v>
+      </c>
+      <c r="H78" s="1">
+        <f t="shared" si="14"/>
+        <v>4.1501976284584984E-2</v>
+      </c>
+      <c r="I78" s="1"/>
+      <c r="J78" s="1">
+        <f t="shared" ref="I78:J78" si="17">J66/506</f>
+        <v>5.9288537549407111E-3</v>
+      </c>
+    </row>
+    <row r="79" spans="3:10" x14ac:dyDescent="0.2">
+      <c r="C79" s="1">
         <f t="shared" si="13"/>
-        <v>4.1501976284584984E-2</v>
-      </c>
-      <c r="H78" s="1">
+        <v>2.766798418972332E-2</v>
+      </c>
+      <c r="D79" s="1">
         <f t="shared" si="13"/>
-        <v>4.1501976284584984E-2</v>
-      </c>
-    </row>
-    <row r="79" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="C79" s="1">
-        <f t="shared" si="12"/>
-        <v>2.766798418972332E-2</v>
-      </c>
-      <c r="D79" s="1">
-        <f t="shared" si="12"/>
         <v>5.9288537549407112E-2</v>
       </c>
       <c r="G79" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>3.5573122529644272E-2</v>
       </c>
       <c r="H79" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>3.5573122529644272E-2</v>
       </c>
-    </row>
-    <row r="80" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="I79" s="1"/>
+      <c r="J79" s="1">
+        <f t="shared" ref="I79:J79" si="18">J67/506</f>
+        <v>3.952569169960474E-3</v>
+      </c>
+    </row>
+    <row r="80" spans="3:10" x14ac:dyDescent="0.2">
       <c r="C80" s="1">
-        <f t="shared" si="12"/>
-        <v>1.9762845849802372E-2</v>
-      </c>
-      <c r="D80" s="1">
-        <f t="shared" si="12"/>
-        <v>4.5454545454545456E-2</v>
-      </c>
-      <c r="G80" s="1">
         <f t="shared" si="13"/>
         <v>1.9762845849802372E-2</v>
       </c>
-      <c r="H80" s="1">
+      <c r="D80" s="1">
         <f t="shared" si="13"/>
         <v>4.5454545454545456E-2</v>
       </c>
-    </row>
-    <row r="81" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="G80" s="1">
+        <f t="shared" si="14"/>
+        <v>1.9762845849802372E-2</v>
+      </c>
+      <c r="H80" s="1">
+        <f t="shared" si="14"/>
+        <v>4.5454545454545456E-2</v>
+      </c>
+      <c r="I80" s="1"/>
+      <c r="J80" s="1">
+        <f t="shared" ref="I80:J80" si="19">J68/506</f>
+        <v>3.952569169960474E-3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:10" x14ac:dyDescent="0.2">
       <c r="C81" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>9.0909090909090912E-2</v>
       </c>
       <c r="D81" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>2.766798418972332E-2</v>
       </c>
       <c r="G81" s="1">
+        <f t="shared" si="14"/>
+        <v>5.33596837944664E-2</v>
+      </c>
+      <c r="H81" s="1">
+        <f t="shared" si="14"/>
+        <v>5.33596837944664E-2</v>
+      </c>
+      <c r="I81" s="1"/>
+      <c r="J81" s="1">
+        <f t="shared" ref="I81:J81" si="20">J69/506</f>
+        <v>3.952569169960474E-3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:10" x14ac:dyDescent="0.2">
+      <c r="C82" s="1">
         <f t="shared" si="13"/>
-        <v>5.33596837944664E-2</v>
-      </c>
-      <c r="H81" s="1">
+        <v>4.9407114624505928E-2</v>
+      </c>
+      <c r="D82" s="1">
         <f t="shared" si="13"/>
-        <v>5.33596837944664E-2</v>
-      </c>
-    </row>
-    <row r="82" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="C82" s="1">
-        <f t="shared" si="12"/>
-        <v>4.9407114624505928E-2</v>
-      </c>
-      <c r="D82" s="1">
-        <f t="shared" si="12"/>
         <v>5.533596837944664E-2</v>
       </c>
       <c r="G82" s="1">
+        <f t="shared" si="14"/>
+        <v>0.16798418972332016</v>
+      </c>
+      <c r="H82" s="1">
+        <f t="shared" si="14"/>
+        <v>0.22134387351778656</v>
+      </c>
+      <c r="I82" s="1"/>
+      <c r="J82" s="1">
+        <f t="shared" ref="I82:J82" si="21">J70/506</f>
+        <v>8.6956521739130432E-2</v>
+      </c>
+    </row>
+    <row r="83" spans="3:10" x14ac:dyDescent="0.2">
+      <c r="C83" s="1">
         <f t="shared" si="13"/>
-        <v>0.16798418972332016</v>
-      </c>
-      <c r="H82" s="1">
+        <v>0.3715415019762846</v>
+      </c>
+      <c r="D83" s="1">
         <f t="shared" si="13"/>
-        <v>0.22134387351778656</v>
-      </c>
-    </row>
-    <row r="83" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="C83" s="1">
-        <f t="shared" si="12"/>
-        <v>0.3715415019762846</v>
-      </c>
-      <c r="D83" s="1">
-        <f t="shared" si="12"/>
         <v>3.7549407114624504E-2</v>
       </c>
       <c r="G83" s="1">
+        <f t="shared" si="14"/>
+        <v>0.17588932806324112</v>
+      </c>
+      <c r="H83" s="1">
+        <f t="shared" si="14"/>
+        <v>0.1600790513833992</v>
+      </c>
+      <c r="I83" s="1"/>
+      <c r="J83" s="1">
+        <f t="shared" ref="I83:J83" si="22">J71/506</f>
+        <v>0.30039525691699603</v>
+      </c>
+    </row>
+    <row r="84" spans="3:10" x14ac:dyDescent="0.2">
+      <c r="C84" s="1">
         <f t="shared" si="13"/>
-        <v>0.17588932806324112</v>
-      </c>
-      <c r="H83" s="1">
+        <v>5.9288537549407111E-3</v>
+      </c>
+      <c r="D84" s="1">
         <f t="shared" si="13"/>
-        <v>0.1600790513833992</v>
-      </c>
-    </row>
-    <row r="84" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="C84" s="1">
-        <f t="shared" si="12"/>
-        <v>5.9288537549407111E-3</v>
-      </c>
-      <c r="D84" s="1">
-        <f t="shared" si="12"/>
         <v>5.731225296442688E-2</v>
       </c>
       <c r="G84" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>7.9051383399209488E-2</v>
       </c>
       <c r="H84" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>7.7075098814229248E-2</v>
       </c>
-    </row>
-    <row r="85" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="I84" s="1"/>
+      <c r="J84" s="1">
+        <f t="shared" ref="I84:J84" si="23">J72/506</f>
+        <v>9.8814229249011856E-2</v>
+      </c>
+    </row>
+    <row r="85" spans="3:10" x14ac:dyDescent="0.2">
       <c r="C85" s="1">
         <f>STDEV(C75:C84)</f>
         <v>0.11407497792366794</v>
@@ -2467,11 +2550,16 @@
       </c>
       <c r="G85" s="1"/>
       <c r="H85" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>1.9762845849802372E-2</v>
       </c>
-    </row>
-    <row r="86" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="I85" s="1"/>
+      <c r="J85" s="1">
+        <f t="shared" ref="I85:J85" si="24">J73/506</f>
+        <v>0.46047430830039526</v>
+      </c>
+    </row>
+    <row r="86" spans="3:10" x14ac:dyDescent="0.2">
       <c r="G86" s="1">
         <f>STDEV(G75:G84)</f>
         <v>7.16822148161496E-2</v>
@@ -2479,6 +2567,11 @@
       <c r="H86" s="1">
         <f>STDEV(H75:H85)</f>
         <v>6.9575322658061281E-2</v>
+      </c>
+      <c r="I86" s="1"/>
+      <c r="J86" s="1">
+        <f t="shared" ref="I86:J86" si="25">STDEV(J75:J85)</f>
+        <v>0.15151801566863832</v>
       </c>
     </row>
   </sheetData>
